--- a/Excels/Read Seq.xlsx
+++ b/Excels/Read Seq.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanb\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanb\OneDrive\Desktop\BMark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{848AA352-D3D0-48C2-91A4-DE5045257F07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D13308F-E773-45C2-9E2E-C5BAB3E4FD22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59A0B71D-9B6D-4BA9-809E-E1D582CB16F2}"/>
   </bookViews>
@@ -206,14 +206,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +531,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,19 +542,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="61.2" x14ac:dyDescent="1.1000000000000001">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -616,11 +616,11 @@
         <v>84.390243902439025</v>
       </c>
       <c r="H4" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I4" s="1">
         <f>(C4-H4)^2</f>
-        <v>13583.902500000002</v>
+        <v>3470.0065981043053</v>
       </c>
       <c r="J4" s="1">
         <v>409.06900000000002</v>
@@ -655,11 +655,11 @@
         <v>89.512195121951223</v>
       </c>
       <c r="H5" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I24" si="2">(C5-H5)^2</f>
-        <v>10722.602500000003</v>
+        <v>2107.4307885804965</v>
       </c>
       <c r="J5" s="1">
         <v>409.06900000000002</v>
@@ -694,11 +694,11 @@
         <v>99.756097560975604</v>
       </c>
       <c r="H6" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="2"/>
-        <v>1925.7176890000032</v>
+        <v>189.3441524376417</v>
       </c>
       <c r="J6" s="1">
         <v>409.06900000000002</v>
@@ -733,11 +733,11 @@
         <v>83.475609756097555</v>
       </c>
       <c r="H7" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="2"/>
-        <v>13393.432900000003</v>
+        <v>3374.0719085804967</v>
       </c>
       <c r="J7" s="1">
         <v>409.06900000000002</v>
@@ -772,11 +772,11 @@
         <v>96.951463414634148</v>
       </c>
       <c r="H8" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="2"/>
-        <v>3666.3025000000016</v>
+        <v>8.4492647709749082</v>
       </c>
       <c r="J8" s="1">
         <v>409.06900000000002</v>
@@ -811,11 +811,11 @@
         <v>101.50170731707317</v>
       </c>
       <c r="H9" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="2"/>
-        <v>1926.3320999999987</v>
+        <v>189.15155810430977</v>
       </c>
       <c r="J9" s="1">
         <v>409.06900000000002</v>
@@ -832,7 +832,7 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>357.14299999999997</v>
       </c>
       <c r="D10" s="6">
@@ -850,11 +850,11 @@
         <v>85.331707317073167</v>
       </c>
       <c r="H10" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="2"/>
-        <v>10693.007649000008</v>
+        <v>2094.3219036757373</v>
       </c>
       <c r="J10" s="1">
         <v>409.06900000000002</v>
@@ -889,11 +889,11 @@
         <v>101.55121951219512</v>
       </c>
       <c r="H11" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="2"/>
-        <v>1925.7176890000032</v>
+        <v>189.3441524376417</v>
       </c>
       <c r="J11" s="1">
         <v>409.06900000000002</v>
@@ -928,11 +928,11 @@
         <v>119.70243902439024</v>
       </c>
       <c r="H12" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="2"/>
-        <v>1925.7176890000032</v>
+        <v>189.3441524376417</v>
       </c>
       <c r="J12" s="1">
         <v>409.06900000000002</v>
@@ -967,11 +967,11 @@
         <v>90.7</v>
       </c>
       <c r="H13" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="2"/>
-        <v>8132.4324000000015</v>
+        <v>1058.6408752471636</v>
       </c>
       <c r="J13" s="1">
         <v>409.06900000000002</v>
@@ -1006,11 +1006,11 @@
         <v>103.06341463414634</v>
       </c>
       <c r="H14" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="2"/>
-        <v>684.65955599999984</v>
+        <v>990.81651810431094</v>
       </c>
       <c r="J14" s="1">
         <v>409.06900000000002</v>
@@ -1045,11 +1045,11 @@
         <v>107.47560975609755</v>
       </c>
       <c r="H15" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="2"/>
-        <v>709.3699560000008</v>
+        <v>961.57284724716692</v>
       </c>
       <c r="J15" s="1">
         <v>409.06900000000002</v>
@@ -1084,11 +1084,11 @@
         <v>95.424390243902451</v>
       </c>
       <c r="H16" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="2"/>
-        <v>3784.4643240000037</v>
+        <v>15.013779818594044</v>
       </c>
       <c r="J16" s="1">
         <v>409.06900000000002</v>
@@ -1123,11 +1123,11 @@
         <v>101.79024390243903</v>
       </c>
       <c r="H17" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="2"/>
-        <v>1810.8429160000026</v>
+        <v>227.68510629478479</v>
       </c>
       <c r="J17" s="1">
         <v>409.06900000000002</v>
@@ -1162,11 +1162,11 @@
         <v>117.09512195121951</v>
       </c>
       <c r="H18" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="2"/>
-        <v>652.49593600000208</v>
+        <v>1030.3610862947844</v>
       </c>
       <c r="J18" s="1">
         <v>409.06900000000002</v>
@@ -1201,11 +1201,11 @@
         <v>99.107317073170734</v>
       </c>
       <c r="H19" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="2"/>
-        <v>1761.4809000000023</v>
+        <v>245.65039239002297</v>
       </c>
       <c r="J19" s="1">
         <v>409.06900000000002</v>
@@ -1240,11 +1240,11 @@
         <v>107.53414634146341</v>
       </c>
       <c r="H20" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="2"/>
-        <v>1641.7893610000006</v>
+        <v>293.23953034240469</v>
       </c>
       <c r="J20" s="1">
         <v>409.06900000000002</v>
@@ -1279,11 +1279,11 @@
         <v>114.77073170731707</v>
       </c>
       <c r="H21" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="2"/>
-        <v>1009.587076</v>
+        <v>669.2174796281198</v>
       </c>
       <c r="J21" s="1">
         <v>409.06900000000002</v>
@@ -1318,11 +1318,11 @@
         <v>100.2941463414634</v>
       </c>
       <c r="H22" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="2"/>
-        <v>3666.3025000000016</v>
+        <v>8.4492647709749082</v>
       </c>
       <c r="J22" s="1">
         <v>409.06900000000002</v>
@@ -1357,11 +1357,11 @@
         <v>101.56219512195122</v>
       </c>
       <c r="H23" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="2"/>
-        <v>1926.3320999999987</v>
+        <v>189.15155810430977</v>
       </c>
       <c r="J23" s="1">
         <v>409.06900000000002</v>
@@ -1396,11 +1396,11 @@
         <v>94.24146341463414</v>
       </c>
       <c r="H24" s="1">
-        <v>460.55</v>
+        <v>402.90676190476188</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="2"/>
-        <v>1925.7176890000032</v>
+        <v>189.3441524376417</v>
       </c>
       <c r="J24" s="1">
         <v>409.06900000000002</v>
@@ -1414,7 +1414,7 @@
       <c r="G27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="10">
         <f>AVERAGE(C4:C24)</f>
         <v>402.90676190476188</v>
       </c>
@@ -1423,20 +1423,20 @@
       <c r="G28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <f>SQRT(SUM(I4:I24)/21)</f>
-        <v>64.537994689728549</v>
+        <v>29.024297760103003</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G29" s="8"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="10">
         <f>AVERAGE(D4:D24)</f>
         <v>409.06900000000002</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="G31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="10">
         <f>SQRT(SUM(K4:K24)/21)</f>
         <v>40.236904364738869</v>
       </c>
